--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H2">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N2">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q2">
-        <v>88.01850306828393</v>
+        <v>45.95926957289333</v>
       </c>
       <c r="R2">
-        <v>88.01850306828393</v>
+        <v>413.63342615604</v>
       </c>
       <c r="S2">
-        <v>0.07826766854989115</v>
+        <v>0.0317036617260107</v>
       </c>
       <c r="T2">
-        <v>0.07826766854989115</v>
+        <v>0.03170366172601068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H3">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I3">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J3">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N3">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q3">
-        <v>126.8421742482041</v>
+        <v>66.48767972032</v>
       </c>
       <c r="R3">
-        <v>126.8421742482041</v>
+        <v>598.38911748288</v>
       </c>
       <c r="S3">
-        <v>0.1127903895900639</v>
+        <v>0.04586458676104815</v>
       </c>
       <c r="T3">
-        <v>0.1127903895900639</v>
+        <v>0.04586458676104814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H4">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I4">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J4">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N4">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q4">
-        <v>15.18909062898085</v>
+        <v>7.985211735593334</v>
       </c>
       <c r="R4">
-        <v>15.18909062898085</v>
+        <v>71.86690562034001</v>
       </c>
       <c r="S4">
-        <v>0.01350641819028732</v>
+        <v>0.005508365429400455</v>
       </c>
       <c r="T4">
-        <v>0.01350641819028732</v>
+        <v>0.005508365429400452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H5">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I5">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J5">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N5">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q5">
-        <v>17.22933609500995</v>
+        <v>9.001573210203334</v>
       </c>
       <c r="R5">
-        <v>17.22933609500995</v>
+        <v>81.01415889183001</v>
       </c>
       <c r="S5">
-        <v>0.0153206419083583</v>
+        <v>0.006209472750770713</v>
       </c>
       <c r="T5">
-        <v>0.0153206419083583</v>
+        <v>0.00620947275077071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H6">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I6">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J6">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N6">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q6">
-        <v>12.00706398976465</v>
+        <v>6.537929471573334</v>
       </c>
       <c r="R6">
-        <v>12.00706398976465</v>
+        <v>58.84136524416</v>
       </c>
       <c r="S6">
-        <v>0.01067690169508077</v>
+        <v>0.004509999969136322</v>
       </c>
       <c r="T6">
-        <v>0.01067690169508077</v>
+        <v>0.00450999996913632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H7">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J7">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N7">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q7">
-        <v>131.0078931316222</v>
+        <v>97.72261535793733</v>
       </c>
       <c r="R7">
-        <v>131.0078931316222</v>
+        <v>879.5035382214359</v>
       </c>
       <c r="S7">
-        <v>0.1164946232849547</v>
+        <v>0.06741109615276376</v>
       </c>
       <c r="T7">
-        <v>0.1164946232849547</v>
+        <v>0.06741109615276374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H8">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I8">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J8">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N8">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q8">
-        <v>188.7935539598959</v>
+        <v>141.371914996288</v>
       </c>
       <c r="R8">
-        <v>188.7935539598959</v>
+        <v>1272.347234966592</v>
       </c>
       <c r="S8">
-        <v>0.1678786935768006</v>
+        <v>0.09752129248903751</v>
       </c>
       <c r="T8">
-        <v>0.1678786935768006</v>
+        <v>0.0975212924890375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H9">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I9">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J9">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N9">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q9">
-        <v>22.60764149038422</v>
+        <v>16.97885502186734</v>
       </c>
       <c r="R9">
-        <v>22.60764149038422</v>
+        <v>152.809695196806</v>
       </c>
       <c r="S9">
-        <v>0.02010312978728391</v>
+        <v>0.01171236795342246</v>
       </c>
       <c r="T9">
-        <v>0.02010312978728391</v>
+        <v>0.01171236795342246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H10">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I10">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J10">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N10">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q10">
-        <v>25.6443695720747</v>
+        <v>19.13993160926633</v>
       </c>
       <c r="R10">
-        <v>25.6443695720747</v>
+        <v>172.259384483397</v>
       </c>
       <c r="S10">
-        <v>0.02280344413811432</v>
+        <v>0.0132031236100639</v>
       </c>
       <c r="T10">
-        <v>0.02280344413811432</v>
+        <v>0.0132031236100639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H11">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I11">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J11">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N11">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q11">
-        <v>17.87147135160094</v>
+        <v>13.90151699374933</v>
       </c>
       <c r="R11">
-        <v>17.87147135160094</v>
+        <v>125.113652943744</v>
       </c>
       <c r="S11">
-        <v>0.01589164036521768</v>
+        <v>0.009589556064401834</v>
       </c>
       <c r="T11">
-        <v>0.01589164036521768</v>
+        <v>0.009589556064401832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H12">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I12">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J12">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N12">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O12">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P12">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q12">
-        <v>103.5191129736452</v>
+        <v>133.3373841600489</v>
       </c>
       <c r="R12">
-        <v>103.5191129736452</v>
+        <v>1200.03645744044</v>
       </c>
       <c r="S12">
-        <v>0.09205109539882073</v>
+        <v>0.09197890571643391</v>
       </c>
       <c r="T12">
-        <v>0.09205109539882073</v>
+        <v>0.09197890571643388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H13">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I13">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J13">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N13">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P13">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q13">
-        <v>149.1798759135456</v>
+        <v>192.8945645821866</v>
       </c>
       <c r="R13">
-        <v>149.1798759135456</v>
+        <v>1736.05108123968</v>
       </c>
       <c r="S13">
-        <v>0.1326534839300457</v>
+        <v>0.1330626896626454</v>
       </c>
       <c r="T13">
-        <v>0.1326534839300457</v>
+        <v>0.1330626896626454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H14">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I14">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J14">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N14">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O14">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P14">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q14">
-        <v>17.86398466204976</v>
+        <v>23.16675731974889</v>
       </c>
       <c r="R14">
-        <v>17.86398466204976</v>
+        <v>208.50081587774</v>
       </c>
       <c r="S14">
-        <v>0.01588498306344702</v>
+        <v>0.01598091188522914</v>
       </c>
       <c r="T14">
-        <v>0.01588498306344702</v>
+        <v>0.01598091188522913</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H15">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I15">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J15">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N15">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O15">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P15">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q15">
-        <v>20.26353013861829</v>
+        <v>26.11543299812555</v>
       </c>
       <c r="R15">
-        <v>20.26353013861829</v>
+        <v>235.03889698313</v>
       </c>
       <c r="S15">
-        <v>0.01801870294601259</v>
+        <v>0.01801496980468105</v>
       </c>
       <c r="T15">
-        <v>0.01801870294601259</v>
+        <v>0.01801496980468104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H16">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I16">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J16">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N16">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O16">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P16">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q16">
-        <v>14.12158319341055</v>
+        <v>18.96789095352889</v>
       </c>
       <c r="R16">
-        <v>14.12158319341055</v>
+        <v>170.71101858176</v>
       </c>
       <c r="S16">
-        <v>0.01255717098397047</v>
+        <v>0.01308444638121956</v>
       </c>
       <c r="T16">
-        <v>0.01255717098397047</v>
+        <v>0.01308444638121955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H17">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I17">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J17">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N17">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O17">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P17">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q17">
-        <v>59.210788301642</v>
+        <v>141.0874718215738</v>
       </c>
       <c r="R17">
-        <v>59.210788301642</v>
+        <v>1269.787246394164</v>
       </c>
       <c r="S17">
-        <v>0.05265131980005895</v>
+        <v>0.09732507766066409</v>
       </c>
       <c r="T17">
-        <v>0.05265131980005895</v>
+        <v>0.09732507766066406</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H18">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I18">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J18">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N18">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P18">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q18">
-        <v>85.3277988754692</v>
+        <v>204.1063473418453</v>
       </c>
       <c r="R18">
-        <v>85.3277988754692</v>
+        <v>1836.957126076608</v>
       </c>
       <c r="S18">
-        <v>0.07587504499248243</v>
+        <v>0.1407968110109835</v>
       </c>
       <c r="T18">
-        <v>0.07587504499248243</v>
+        <v>0.1407968110109834</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H19">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I19">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J19">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N19">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O19">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P19">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q19">
-        <v>10.21782918790752</v>
+        <v>24.51329941064378</v>
       </c>
       <c r="R19">
-        <v>10.21782918790752</v>
+        <v>220.619694695794</v>
       </c>
       <c r="S19">
-        <v>0.009085881267011885</v>
+        <v>0.01690978467512102</v>
       </c>
       <c r="T19">
-        <v>0.009085881267011885</v>
+        <v>0.01690978467512102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H20">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I20">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J20">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N20">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O20">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P20">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q20">
-        <v>11.59031949575467</v>
+        <v>27.63336359447811</v>
       </c>
       <c r="R20">
-        <v>11.59031949575467</v>
+        <v>248.700272350303</v>
       </c>
       <c r="S20">
-        <v>0.01030632484146329</v>
+        <v>0.01906206995656654</v>
       </c>
       <c r="T20">
-        <v>0.01030632484146329</v>
+        <v>0.01906206995656654</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.898447</v>
+      </c>
+      <c r="I21">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J21">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N21">
+        <v>36.875648</v>
+      </c>
+      <c r="O21">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P21">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q21">
+        <v>20.07037859096178</v>
+      </c>
+      <c r="R21">
+        <v>180.633407318656</v>
+      </c>
+      <c r="S21">
+        <v>0.01384496532416847</v>
+      </c>
+      <c r="T21">
+        <v>0.01384496532416847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.495777</v>
+      </c>
+      <c r="I22">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J22">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N22">
+        <v>259.222412</v>
+      </c>
+      <c r="O22">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P22">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q22">
+        <v>71.8845926393471</v>
+      </c>
+      <c r="R22">
+        <v>646.9613337541239</v>
+      </c>
+      <c r="S22">
+        <v>0.04958748973882932</v>
+      </c>
+      <c r="T22">
+        <v>0.0495874897388293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.495777</v>
+      </c>
+      <c r="I23">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J23">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.002688</v>
+      </c>
+      <c r="N23">
+        <v>375.008064</v>
+      </c>
+      <c r="O23">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P23">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q23">
+        <v>103.9929445495253</v>
+      </c>
+      <c r="R23">
+        <v>935.936500945728</v>
+      </c>
+      <c r="S23">
+        <v>0.07173649987323723</v>
+      </c>
+      <c r="T23">
+        <v>0.07173649987323721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.495777</v>
+      </c>
+      <c r="I24">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J24">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N24">
+        <v>45.038702</v>
+      </c>
+      <c r="O24">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P24">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q24">
+        <v>12.48961739571711</v>
+      </c>
+      <c r="R24">
+        <v>112.406556561454</v>
+      </c>
+      <c r="S24">
+        <v>0.008615598304344114</v>
+      </c>
+      <c r="T24">
+        <v>0.008615598304344113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.686631882621105</v>
-      </c>
-      <c r="H21">
-        <v>0.686631882621105</v>
-      </c>
-      <c r="I21">
-        <v>0.1551010125916509</v>
-      </c>
-      <c r="J21">
-        <v>0.1551010125916509</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.7635858067027</v>
-      </c>
-      <c r="N21">
-        <v>11.7635858067027</v>
-      </c>
-      <c r="O21">
-        <v>0.04630815473490328</v>
-      </c>
-      <c r="P21">
-        <v>0.04630815473490328</v>
-      </c>
-      <c r="Q21">
-        <v>8.077253068831185</v>
-      </c>
-      <c r="R21">
-        <v>8.077253068831185</v>
-      </c>
-      <c r="S21">
-        <v>0.007182441690634352</v>
-      </c>
-      <c r="T21">
-        <v>0.007182441690634352</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.495777</v>
+      </c>
+      <c r="I25">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J25">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N25">
+        <v>50.771249</v>
+      </c>
+      <c r="O25">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P25">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q25">
+        <v>14.07930172394144</v>
+      </c>
+      <c r="R25">
+        <v>126.713715515473</v>
+      </c>
+      <c r="S25">
+        <v>0.009712195675484449</v>
+      </c>
+      <c r="T25">
+        <v>0.009712195675484448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.495777</v>
+      </c>
+      <c r="I26">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J26">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N26">
+        <v>36.875648</v>
+      </c>
+      <c r="O26">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P26">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q26">
+        <v>10.22593268205511</v>
+      </c>
+      <c r="R26">
+        <v>92.03339413849599</v>
+      </c>
+      <c r="S26">
+        <v>0.007054061424336573</v>
+      </c>
+      <c r="T26">
+        <v>0.007054061424336571</v>
       </c>
     </row>
   </sheetData>
